--- a/reeltok.documentation/Målpinde/Magnus Samlede Målpinde.xlsx
+++ b/reeltok.documentation/Målpinde/Magnus Samlede Målpinde.xlsx
@@ -117,7 +117,7 @@
     <t>15. Lærlingen kan anvende Hashing, Symmetric og Asymmetric Encryption</t>
   </si>
   <si>
-    <t>Hashing bruges til adgangskoder. De skal nemlig ikke kunne komme tilbage til deres plain tekst værdi. Symmetric encryption bruges af vores JSON web tokens i dette projekt. Man ville også kunne bruge asymmetric encryption til dem. I projektet anvender vi asymmetric encryption, til at kryptere bruger data, såsom email adresse.</t>
+    <t>Hashing bruges til adgangskoder. De skal nemlig ikke kunne komme tilbage til deres plain tekst værdi. Symmetric encryption bruges af vores JSON web tokens i dette projekt. Man ville også kunne bruge asymmetric encryption til dem. I projektet bruger vi en SFTP server, som benytter en asymmetrisk krypteret forbindelse.</t>
   </si>
   <si>
     <t>1. Lærlingen kan foretage GUI-programmering rettet mod både clientside-applikationer, og webbaserede applikationer, der bygger på SPA (Single Page Application).</t>
